--- a/Benchmark-Models/Hass_PONE2017/Data/model1_data6.xlsx
+++ b/Benchmark-Models/Hass_PONE2017/Data/model1_data6.xlsx
@@ -282,16 +282,16 @@
         <v>15.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.31161893098011945</v>
+        <v>0.3116589018689643</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.8786640091610912</v>
+        <v>-0.8792937281238564</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1564600521120358</v>
+        <v>0.15644325286704094</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08468950649897704</v>
+        <v>0.08463643317363498</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
